--- a/cspAnalysis/subs.xlsx
+++ b/cspAnalysis/subs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNPPC08\Desktop\Maria\matlab\Projects\CSP\CSPRepo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data\csp\CSP\CSPRepo\cspAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D361BF86-1E25-4C3C-823F-2B04AC2A7FA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC52DAC-47CF-49CC-8F57-41B12422443E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32505" windowHeight="13020" xr2:uid="{D093EC82-0204-41C4-8EFB-4D6BF0B89068}"/>
+    <workbookView xWindow="29370" yWindow="1665" windowWidth="24090" windowHeight="12525" xr2:uid="{D093EC82-0204-41C4-8EFB-4D6BF0B89068}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>Subnum</t>
   </si>
@@ -39,84 +39,12 @@
     <t>isort</t>
   </si>
   <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj1\subj1.mat</t>
-  </si>
-  <si>
     <t>Xclean2</t>
   </si>
   <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj1\subj1_labels.mat</t>
-  </si>
-  <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj2\subj2.mat</t>
-  </si>
-  <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj2\subj2_labels.mat</t>
-  </si>
-  <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj3\subj3.mat</t>
-  </si>
-  <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj3\subj3_labels.mat</t>
-  </si>
-  <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj4\newPreproc\subj4.mat</t>
-  </si>
-  <si>
     <t>XAl</t>
   </si>
   <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj4\subj4_labels.mat</t>
-  </si>
-  <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj5\subj5.mat</t>
-  </si>
-  <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj5\subj5_labels.mat</t>
-  </si>
-  <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj7\newPreproc\subj7.mat</t>
-  </si>
-  <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj7\subj7_labels.mat</t>
-  </si>
-  <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj8\newPreproc\subj8.mat</t>
-  </si>
-  <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj8\subj8_labels.mat</t>
-  </si>
-  <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj9\newPreproc\subj9.mat</t>
-  </si>
-  <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj9\subj9_labels.mat</t>
-  </si>
-  <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj14\subj14.mat</t>
-  </si>
-  <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj14\subj14_labels.mat</t>
-  </si>
-  <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj15\subj15.mat</t>
-  </si>
-  <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj15\subj15_labels.mat</t>
-  </si>
-  <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj16\subj16.mat</t>
-  </si>
-  <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj16\subj16_labels.mat</t>
-  </si>
-  <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj17\subj17.mat</t>
-  </si>
-  <si>
-    <t>P:\2018-12 POSTHOCSOURCE Project\analysis_johanna\CleanedDAta\Subj17\subj17_labels.mat</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -154,16 +82,132 @@
   </si>
   <si>
     <t>REFTEP_017</t>
+  </si>
+  <si>
+    <t>headmodel</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj1\subj1.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj1\subj1_labels.mat</t>
+  </si>
+  <si>
+    <t>\\tw-nbe.org.aalto.fi\project\c2b-shared\ReftepData\REFTEP headmodels\Subj1\headmodel_001.mat</t>
+  </si>
+  <si>
+    <t>\\tw-nbe.org.aalto.fi\project\c2b-shared\ReftepData\REFTEP headmodels\Subj3\headmodel_016.mat</t>
+  </si>
+  <si>
+    <t>\\tw-nbe.org.aalto.fi\project\c2b-shared\ReftepData\REFTEP headmodels\Subj4\headmodel_009.mat</t>
+  </si>
+  <si>
+    <t>\\tw-nbe.org.aalto.fi\project\c2b-shared\ReftepData\REFTEP headmodels\Subj5\headmodel_021.mat</t>
+  </si>
+  <si>
+    <t>\\tw-nbe.org.aalto.fi\project\c2b-shared\ReftepData\REFTEP headmodels\Subj7\headmodel_036.mat</t>
+  </si>
+  <si>
+    <t>\\tw-nbe.org.aalto.fi\project\c2b-shared\ReftepData\REFTEP headmodels\Subj8\headmodel_059.mat</t>
+  </si>
+  <si>
+    <t>\\tw-nbe.org.aalto.fi\project\c2b-shared\ReftepData\REFTEP headmodels\Subj9\headmodel_047.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj2\subj2.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj2\subj2_labels.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj3\subj3_labels.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj4\subj4_labels.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj5\subj5_labels.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj7\subj7_labels.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj8\subj8_labels.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj9\subj9_labels.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj14\subj14_labels.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj15\subj15_labels.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj16\subj16_labels.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj17\subj17_labels.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj3\subj3.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj4\newPreproc\subj4.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj5\subj5.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj7\newPreproc\subj7.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj8\newPreproc\subj8.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj9\newPreproc\subj9.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj14\subj14.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj15\subj15.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj16\subj16.mat</t>
+  </si>
+  <si>
+    <t>E:\Data\csp\CleanedDAta\Subj17\subj17.mat</t>
+  </si>
+  <si>
+    <t>\\tw-nbe.org.aalto.fi\project\c2b-shared\ReftepData\REFTEP headmodels\Subj2\headmodel_018.mat</t>
+  </si>
+  <si>
+    <t>\\tw-nbe.org.aalto.fi\project\c2b-shared\ReftepData\REFTEP headmodels\Subj14\headmodel.mat</t>
+  </si>
+  <si>
+    <t>\\tw-nbe.org.aalto.fi\project\c2b-shared\ReftepData\REFTEP headmodels\Subj15\headmodel.mat</t>
+  </si>
+  <si>
+    <t>\\tw-nbe.org.aalto.fi\project\c2b-shared\ReftepData\REFTEP headmodels\Subj16\headmodel.mat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,13 +230,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -505,24 +552,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8BFD37-B579-4758-B87A-788CA69C047D}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="90.140625" customWidth="1"/>
+    <col min="5" max="5" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -533,212 +581,261 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{ECE9675E-2AB6-420E-9711-EE638DDCEF88}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{C81FE527-43CF-4981-B5FF-396D335B7706}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{BE555C2A-20F1-4AD1-B7EE-9001CE0A8385}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{A42CF72B-838E-4C5D-980E-69FBADD4D74C}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{85235F88-96B0-4C06-A9E6-2F9A08C5F839}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{188A1E9D-C11C-432E-B1F1-7101A0245B85}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{4CBFA33C-B96D-4638-82BA-BB8ECD376F12}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{DBCB93DA-12F5-4555-B5A5-4A39E3CCBC11}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{4F37E047-3CFD-42AB-973E-64E6742F6F3B}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{94C7C422-F640-4CEF-A215-4FCE4077458F}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{3686FCEF-F045-4320-90DC-2490F2D09032}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>